--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_valid.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_valid.xlsx
@@ -563,21 +563,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL3669143</t>
+          <t>CHEMBL2172315</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>514.61</v>
+        <v>595.74</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COc1ccccc1-c1c(C(N)=O)sc2cnc(Nc3ccc(-c4cnn(C)c4)cc3OC(C)C)nc12</t>
+          <t>CC(C)NC(=O)[C@H]1CC[C@@H](n2/c(=N/C(=O)c3cc(F)cc(F)c3)[nH]c3ccc(CN4CCC(C(C)(C)O)CC4)cc32)CC1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CHEMBL3705810</t>
+          <t>CHEMBL2176371</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>In Vitro Inhibition Assay: The reagents used have the following composition: Enzyme buffer (EB): 50 mM HEPES (pH: 7.0) (Sigma H7523), 100 mM NaCl (Sigma S7653), NaN.sub.3 at 0.01% (Sigma S8032), BSA at 0.005% (Sigma A2153), 0.05 mM sodium orthovanadate (Calbiochem 567540). Detection buffer (DB): 50 mM HEPES (pH: 7.0), BSA at 0.1%, 0.8 M KF (Fluka 60239), 20 mM EDTA (Sigma E5134).The peptide used is the one described in Biochemistry, 2005, 44, 8533-8542; A-21-K(biotin)NH.sub.2, obtained from NeoMPS (reference SP081233). All the HTRF reagents Mab PT66-K (61T66KLB) and streptavidin-XL665 (610SAXLB), and the SEB reagent, are purchased from Cisbio.The test is carried out in a 384-well plate (Greiner 784076). The serial dilutions are carried out in pure DMSO, and then an intermediate one-in-three dilution in water is carried out, with 1 microliter of each concentration being distributed, all these operations being performed using the Zephyr apparatus (Caliper Life Sciences).</t>
+          <t>Inhibition of ALK enzyme</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -645,24 +645,28 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>CHEMBL3639289</t>
+          <t>CHEMBL2169770</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V2" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD5930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455EE0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -674,21 +678,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL3918298</t>
+          <t>CHEMBL2172327</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>422.46</v>
+        <v>459.59</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(S(=O)(=O)CCC(=O)O)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>NC(=O)[C@H]1CC[C@@H](n2/c(=N/C(=O)c3ccccc3)[nH]c3ccc(CN4CCCCC4)cc32)CC1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -707,16 +711,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>71.08</v>
+        <v>18</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL2176371</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK enzyme</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -731,7 +735,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -756,24 +760,28 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL2169770</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V3" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD5A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456C70&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -785,21 +793,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL4461630</t>
+          <t>CHEMBL3913728</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>413.53</v>
+        <v>513.9299999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CC(C)N1CCN(c2ccc(-c3n[nH]c4nc(-c5ccc(O)cc5)ccc34)cc2)CC1</t>
+          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(N/N=C/c2ccc(OC(F)(F)F)cc2)ncc1Cl</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,16 +826,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>47.4</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CHEMBL4370936</t>
+          <t>CHEMBL3870414</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using peptide substrate measured after 1 hr by LanthaScreen assay</t>
+          <t>Inhibition of ALK (unknown origin) using peptide as substrate after 60 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -867,7 +875,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>CHEMBL4368941</t>
+          <t>CHEMBL3870304</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -877,18 +885,18 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Eur J Med Chem</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD6500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455E00&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -900,21 +908,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL3953919</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>CHEMBL1983268</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENTRECTINIB</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>661.11</v>
+        <v>560.65</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C(C)=O)CC2)ccc1Nc1ncc(Cl)c(Nc2ccc(N3CCN(C(=O)CO)CC3)cc2OC(F)F)n1</t>
+          <t>CN1CCN(c2ccc(C(=O)Nc3n[nH]c4ccc(Cc5cc(F)cc(F)c5)cc34)c(NC3CCOCC3)c2)CC1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -933,16 +945,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CHEMBL3887133</t>
+          <t>CHEMBL3806916</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>Inhibition of recombinant ALK (unknown origin) in presence of gamma33-ATP</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -957,7 +969,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -982,24 +994,28 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL3804811</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V5" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD7CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455D20&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1011,21 +1027,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL1796244</t>
+          <t>CHEMBL3736273</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>493.08</v>
+        <v>463.59</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CCN1CCc2ccc(Nc3ncc(Cl)c(N[C@@H]4CCCC[C@H]4NS(C)(=O)=O)n3)cc2CC1</t>
+          <t>CCc1cc2c(cc1-c1cnn(C3CCNCC3)c1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1044,16 +1060,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CHEMBL1798383</t>
+          <t>CHEMBL3738494</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Inhibition of gatekeeper ALK L1196M mutant (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1068,7 +1084,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1093,7 +1109,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>CHEMBL1795227</t>
+          <t>CHEMBL3734710</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1103,18 +1119,18 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD5700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455380&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1126,21 +1142,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL458997</t>
+          <t>CHEMBL2418750</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>468.95</v>
+        <v>354.42</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc(N3CCOCC3)cc2OC)ncc1Cl</t>
+          <t>Cn1cc(-c2cnc3[nH]cc(-c4cnn(Cc5ccccc5)c4)c3c2)cn1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1159,16 +1175,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CHEMBL1648480</t>
+          <t>CHEMBL2423641</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Inhibition of wild type human recombinant ALK after 30 mins by TR-FRET assay</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1183,7 +1199,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1208,7 +1224,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>CHEMBL1641404</t>
+          <t>CHEMBL2417505</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1218,18 +1234,18 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD63B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4557E0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1241,21 +1257,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL1164181</t>
+          <t>CHEMBL1779189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>469.42</v>
+        <v>455.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(-c3cnc4c(c3)N(Cc3cc(Cl)ccc3Cl)CCN4)cn2)CC1</t>
+          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc(Br)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1274,16 +1290,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CHEMBL1168570</t>
+          <t>CHEMBL1781770</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Inhibition of ALK by time-resolved fluorescence assay</t>
+          <t>Inhibition of ALK assessed as biotin-EGPWLEEEEEAYGWMDF peptide phosphorylation by TR-FRET assay</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1323,7 +1339,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>CHEMBL1165965</t>
+          <t>CHEMBL1777813</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1333,18 +1349,18 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456AB0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1356,21 +1372,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL3926221</t>
+          <t>CHEMBL3928179</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>667.22</v>
+        <v>548.71</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CCNC(=O)N1CCN(c2ccc(Nc3ncc(Cl)c(Nc4ccc(N5CCN(C(=O)NCC)CC5)cc4OC)n3)c(OC)c2)CC1</t>
+          <t>COc1nc(C)ccc1-c1c(CO)sc2cnc(Nc3cc(C)c(N4CCN(C)CC4)cc3OC(C)C)nc12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1389,16 +1405,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CHEMBL3887132</t>
+          <t>CHEMBL3887055</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>In Vitro Inhibition Assay: The reagents used have the following composition: Enzyme buffer (EB): 50 mM HEPES (pH: 7.0) (Sigma H7523), 100 mM NaCl (Sigma S7653), NaN.sub.3 at 0.01% (Sigma S8032), BSA at 0.005% (Sigma A2153), 0.05 mM sodium orthovanadate (Calbiochem 567540). Detection buffer (DB): 50 mM HEPES (pH: 7.0), BSA at 0.1%, 0.8 M KF (Fluka 60239), 20 mM EDTA (Sigma E5134).The peptide used is the one described in Biochemistry, 2005, 44, 8533-8542; A-21-K(biotin)NH.sub.2, obtained from NeoMPS (reference SP081233). All the HTRF reagents Mab PT66-K (61T66KLB) and streptavidin-XL665 (610SAXLB), and the SEB reagent, are purchased from Cisbio.The test is carried out in a 384-well plate (Greiner 784076). The serial dilutions are carried out in pure DMSO, and then an intermediate one-in-three dilution in water is carried out, with 1 microliter of each concentration being distributed, all these operations being performed using the Zephyr apparatus (Caliper Life Sciences).</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1413,7 +1429,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1438,7 +1454,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL3639289</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1455,7 +1471,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454190&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1467,21 +1483,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL1822527</t>
+          <t>CHEMBL3357442</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>591.74</v>
+        <v>475.96</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCC(N3CCOCC3)CC2)ccc1Nc1ncc2ccc(-c3ccccc3N(C)S(C)(=O)=O)n2n1</t>
+          <t>CN(c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN)c2)ncc1Cl)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1500,16 +1516,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CHEMBL1825977</t>
+          <t>CHEMBL3364272</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
+          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1549,7 +1565,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>CHEMBL1821719</t>
+          <t>CHEMBL3351234</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1559,18 +1575,18 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD6EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455D90&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1582,21 +1598,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL4466561</t>
+          <t>CHEMBL4750810</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>572.16</v>
+        <v>637.23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cc1cc(NC2CCN(C)CC2)ccc1-c1cc2c(N3CCC[C@H](C(=O)NCc4ccc(Cl)cc4)C3)ncnc2[nH]1</t>
+          <t>CCN1CCN(CCS(=O)(=O)c2ccc(Nc3ncc(Cl)c(Nc4ccccc4S(=O)(=O)C(C)C)n3)c(OC)c2)CC1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1615,16 +1631,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.86</v>
+        <v>18</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CHEMBL4378261</t>
+          <t>CHEMBL4672464</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) by TR-FRET assay</t>
+          <t>Inhibition of ALK L1196M mutant (unknown origin) using peptide substrate incubated for 60 mins in presence of ATP by HTRF assay</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1664,7 +1680,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>CHEMBL4376817</t>
+          <t>CHEMBL4665877</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1674,18 +1690,18 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg Med Chem</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD6960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457370&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1697,21 +1713,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL3604639</t>
+          <t>CHEMBL1823221</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>586.08</v>
+        <v>454.57</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)c(C(F)(F)F)cc1C1CCN(C)CC1</t>
+          <t>CCc1cc2c(cc1N1CCN(C3COC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1730,16 +1746,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CHEMBL3607640</t>
+          <t>CHEMBL1942591</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Inhibition of wild type human recombinant ALK using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
+          <t>Inhibition of ALK using Bio-Gastrintide as substrate by TR-FRET assay in presence of 30 uM of ATP</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1754,7 +1770,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1779,7 +1795,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>CHEMBL3603807</t>
+          <t>CHEMBL1938232</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1789,18 +1805,18 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg. Med. Chem.</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD4190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457760&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1812,26 +1828,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL3894804</t>
+          <t>CHEMBL3984690</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>407.52</v>
+        <v>625.5599999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CC1(C)c2ccc(C3=CCN(C4CC4)CC3)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>COc1cc(N2CCNCC2)ccc1Nc1nc(Cc2c(Cl)cccc2Cl)n2cc(CN3CCOCC3)nc2c1C(N)=O</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1845,16 +1861,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3.96</v>
+        <v>77</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1894,7 +1910,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1911,7 +1927,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD7290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4565E0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1923,21 +1939,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL3824327</t>
+          <t>CHEMBL3263979</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>584.11</v>
+        <v>436.95</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
+          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(C)CNCC3)ncc1Cl</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1956,16 +1972,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.28</v>
+        <v>7.9</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3267806</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2005,7 +2021,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3259567</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2015,18 +2031,18 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>ACS Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD7A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457C30&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2038,21 +2054,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL3982727</t>
+          <t>CHEMBL4461100</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>653.58</v>
+        <v>621.66</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C(C)=O)CC2)ccc1Nc1ncc(Br)c(Nc2ccc(N3CCN(C(C)=O)CC3)cc2OC)n1</t>
+          <t>CN1CCN(C(=O)c2ccc(-c3cc4c(N5CCC[C@H](C(=O)NCc6ccc(OC(F)(F)F)cc6)C5)ncnc4[nH]3)cc2)CC1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2071,16 +2087,16 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>86</v>
+        <v>0.6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CHEMBL3887133</t>
+          <t>CHEMBL4378261</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>Inhibition of ALK (unknown origin) by TR-FRET assay</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2095,7 +2111,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2120,24 +2136,28 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL4376817</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>J Med Chem</t>
+        </is>
+      </c>
       <c r="V15" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456500&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2149,21 +2169,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL2172307</t>
+          <t>CHEMBL3937655</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>548.66</v>
+        <v>519.6900000000001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CC(C)NC(=O)[C@H]1CC[C@@H](n2/c(=N/C(=O)c3ccc(F)cc3)[nH]c3ccc(CN4CCC[C@H]4C(N)=O)cc32)CC1</t>
+          <t>CC1(C)c2cc(N3CCC(N4CCCC4)CC3)c(C3=CCNCC3)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2182,16 +2202,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.778</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CHEMBL2176371</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Inhibition of ALK enzyme</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2206,7 +2226,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2231,28 +2251,24 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>CHEMBL2169770</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454200&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2264,21 +2280,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL3604655</t>
+          <t>CHEMBL1796256</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>548.0700000000001</v>
+        <v>430</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cc(OC2CC2)c(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)cc1C</t>
+          <t>COCCN1CCc2ccc(Nc3ncc(Cl)c(NC4CCCCC4)n3)cc2CC1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2297,16 +2313,16 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CHEMBL3607641</t>
+          <t>CHEMBL1798383</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Inhibition of ALK L1196M mutant (unknown origin) using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2321,7 +2337,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2346,7 +2362,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>CHEMBL3603807</t>
+          <t>CHEMBL1795227</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2356,18 +2372,18 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456960&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2379,21 +2395,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL3735401</t>
+          <t>CHEMBL3735386</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>465.56</v>
+        <v>493.65</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CCc1cc2c(cc1-c1cnn(CC(=O)N(C)C)c1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>CCc1cc2c(cc1C1=CCN(CC3CCOCC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2412,16 +2428,16 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8.1</v>
+        <v>11.2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CHEMBL3738493</t>
+          <t>CHEMBL3738494</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
+          <t>Inhibition of gatekeeper ALK L1196M mutant (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2471,7 +2487,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -2482,7 +2498,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456B90&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2494,21 +2510,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL1779202</t>
+          <t>CHEMBL1822526</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>425.53</v>
+        <v>565.7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(C3CCN(C4COC4)CC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>COc1cc(N2CCN(C[C@@H](C)O)CC2)ccc1Nc1ncc2ccc(-c3ccccc3N(C)S(C)(=O)=O)n2n1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2527,16 +2543,16 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CHEMBL1828297</t>
+          <t>CHEMBL1825977</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Inhibition of ALK activity by TR-FRET assay</t>
+          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2551,7 +2567,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2576,7 +2592,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>CHEMBL1821705</t>
+          <t>CHEMBL1821719</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2586,7 +2602,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -2597,7 +2613,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456420&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2609,21 +2625,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL3330858</t>
+          <t>CHEMBL1642262</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>577.1799999999999</v>
+        <v>582.11</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2nc3c(s2)CCN(CC2CCOCC2)CC3)ncc1Cl</t>
+          <t>CNC(=O)CN1CCc2cc(Nc3ncc(Cl)c(Nc4ccc(N5CCOCC5)cc4OC)n3)c(OC)cc2CC1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2642,16 +2658,16 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CHEMBL3383505</t>
+          <t>CHEMBL1648480</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Inhibition of purified ALK (unknown origin) after 60 mins by ELISA kinase assay</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2666,7 +2682,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2691,7 +2707,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>CHEMBL3352334</t>
+          <t>CHEMBL1641404</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2701,18 +2717,18 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456030&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2724,21 +2740,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL3398171</t>
+          <t>CHEMBL3922786</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>518.5700000000001</v>
+        <v>393.45</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>COc1cc([C@@]2(O)CCN(CC(N)=O)C[C@@H]2O)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
+          <t>CC1(C)c2ccc(OCc3cccnc3)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2757,16 +2773,16 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>60</v>
+        <v>7.092</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>CHEMBL3398706</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) by cellular assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2806,19 +2822,15 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>CHEMBL3396997</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
         <v>2015</v>
       </c>
@@ -2827,7 +2839,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4543C0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2839,21 +2851,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL3356906</t>
+          <t>CHEMBL3917178</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>425.88</v>
+        <v>531.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN)c2)ncc1Cl</t>
+          <t>C[C@@H]1CN(c2cc3c(cc2Br)C(=O)c2c([nH]c4cc(C#N)ccc24)C3(C)C)C[C@H](C)N1C1CCC1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2872,16 +2884,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>32.8</v>
+        <v>0.3</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2921,19 +2933,15 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
         <v>2015</v>
       </c>
@@ -2942,7 +2950,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4578B0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2954,26 +2962,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL2418758</t>
+          <t>CHEMBL3924329</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>399.41</v>
+        <v>491.98</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cnc3[nH]cc(-c4cnn(Cc5cccc([N+](=O)[O-])c5)c4)c3c2)cn1</t>
+          <t>COc1cc(N2CCNCC2)ccc1Nc1nc(Cc2ccccc2Cl)n2ccnc2c1C(N)=O</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2987,16 +2995,16 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>CHEMBL2423641</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Inhibition of wild type human recombinant ALK after 30 mins by TR-FRET assay</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3036,28 +3044,24 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CHEMBL2417505</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454040&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3069,21 +3073,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL3961537</t>
+          <t>CHEMBL3604647</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>414.51</v>
+        <v>548.11</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CN1CCC(Oc2cc3c(cc2N)C(=O)c2c([nH]c4cc(C#N)ccc24)C3(C)C)CC1</t>
+          <t>Cc1cc(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)c(OC(C)C)cc1C1CCNC1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3102,16 +3106,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3.612</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3607640</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of wild type human recombinant ALK using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3151,15 +3155,19 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3603807</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V24" t="n">
         <v>2015</v>
       </c>
@@ -3168,7 +3176,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457610&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3180,21 +3188,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL3892892</t>
+          <t>CHEMBL3949427</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>558.61</v>
+        <v>390.51</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCNCC2)ccc1Nc1ncc(C(F)(F)F)c(Nc2ccc(N3CCNCC3)cc2OC)n1</t>
+          <t>COc1cc2c(cc1SC(C)C)C(=O)c1c([nH]c3cc(C#N)ccc13)C2(C)C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3213,16 +3221,16 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CHEMBL3887132</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3262,7 +3270,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3279,7 +3287,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454EB0&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3291,21 +3299,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL3651830</t>
+          <t>CHEMBL3735811</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>670.2</v>
+        <v>498.63</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n2)c(OC(C)C)cc1C1CCN(C[C@H](O)C(F)(F)F)CC1</t>
+          <t>CCc1cc2c(cc1NC(=O)N1CCC(C(C)(C)O)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3324,16 +3332,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL3738493</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3373,24 +3381,28 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL3734710</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Eur. J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V26" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457A00&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3402,21 +3414,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL3786270</t>
+          <t>CHEMBL3921449</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>531.08</v>
+        <v>505.62</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCC(O)C2(C)C</t>
+          <t>N#Cc1ccc2c3c([nH]c2c1)C1(CCOCC1)c1cc(N2CCC(N4CCCC4)CC2)c(C#N)cc1C3=O</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3435,16 +3447,16 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>56</v>
+        <v>0.86</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>CHEMBL3791604</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Inhibition of ALK L1196M mutant (unknown origin) after 30 mins by HTRF assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3484,28 +3496,24 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>CHEMBL3784918</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W27" t="n">
         <v>1</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457920&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3517,21 +3525,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL2172324</t>
+          <t>CHEMBL3398171</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>488.63</v>
+        <v>518.5700000000001</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1CC[C@@H](n2/c(=N/C(=O)c3ccccc3)[nH]c3ccc(CN4CCCCC4)cc32)CC1</t>
+          <t>COc1cc([C@@]2(O)CCN(CC(N)=O)C[C@@H]2O)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3550,16 +3558,16 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CHEMBL2176371</t>
+          <t>CHEMBL3398705</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Inhibition of ALK enzyme</t>
+          <t>Inhibition of ALK (unknown origin) by enzymatic assay</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3574,7 +3582,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3599,7 +3607,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>CHEMBL2169770</t>
+          <t>CHEMBL3396997</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3609,18 +3617,18 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="W28" t="n">
         <v>1</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9BD0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3632,21 +3640,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL4756753</t>
+          <t>CHEMBL4110481</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>625.15</v>
+        <v>416.48</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CCN1CCN(C(=O)c2cccn2-c2ccc(Nc3ncc(Cl)c(Nc4ccccc4NS(C)(=O)=O)n3)c(OC)c2)CC1</t>
+          <t>CC1(C)c2cc(OC[C@H](O)CO)ccc2C(=O)c2c1[nH]c1c(C3CC3)c(C#N)ccc21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3665,16 +3673,16 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>CHEMBL4672519</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Inhibition of wild-type ALK (unknown origin) incubated for 1 hr</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3714,28 +3722,24 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>CHEMBL4665881</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="W29" t="n">
         <v>1</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB3E0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3747,21 +3751,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL3983337</t>
+          <t>CHEMBL3651832</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>498.63</v>
+        <v>663.1900000000001</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CCOc1cc2c(cc1N1CCC(N3CCOCC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>Cc1cc(Nc2ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(F)F)n2)c(OC(C)C)cc1C1CCN(C(=O)[C@@H]2CCCN2)CC1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3780,16 +3784,16 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3829,7 +3833,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3839,14 +3843,14 @@
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E90E0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3858,21 +3862,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL3958668</t>
+          <t>CHEMBL3823235</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>551.48</v>
+        <v>531</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OC3CCOC34CCN(C3COC3)CC4)ccc2C(=O)c2c1[nH]c1cc(Br)ccc21</t>
+          <t>COc1cc(N2CCN(CCO)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3891,16 +3895,16 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>79.41</v>
+        <v>0.18</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3940,24 +3944,28 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V31" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB0D0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3969,21 +3977,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL3651838</t>
+          <t>CHEMBL3651874</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>710.3</v>
+        <v>695.91</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CC(C)Oc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)C(=O)N(C1CCN(C(=O)[C@@H]3CCCN3C)CC1)C2</t>
+          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN([C@@H]2CCS(=O)(=O)C2)CC1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4002,7 +4010,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -4068,7 +4076,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8C10&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4080,21 +4088,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL1779197</t>
+          <t>CHEMBL4466561</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>371.44</v>
+        <v>572.16</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(N3CCOCC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>Cc1cc(NC2CCN(C)CC2)ccc1-c1cc2c(N3CCC[C@H](C(=O)NCc4ccc(Cl)cc4)C3)ncnc2[nH]1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4113,16 +4121,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>18.5</v>
+        <v>0.86</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CHEMBL1781770</t>
+          <t>CHEMBL4378261</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Inhibition of ALK assessed as biotin-EGPWLEEEEEAYGWMDF peptide phosphorylation by TR-FRET assay</t>
+          <t>Inhibition of ALK (unknown origin) by TR-FRET assay</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4137,7 +4145,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4162,7 +4170,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>CHEMBL1777813</t>
+          <t>CHEMBL4376817</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -4172,18 +4180,18 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J Med Chem</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD1230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8F20&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4195,21 +4203,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL3892880</t>
+          <t>CHEMBL3901433</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>463.38</v>
+        <v>399.45</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(N3CCC(N)CC3)c(Br)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>CC1(C)c2cc(C(=O)N3CCOCC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4228,7 +4236,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.168</v>
+        <v>30.13</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -4294,7 +4302,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8900&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4306,21 +4314,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL3736073</t>
+          <t>CHEMBL4849606</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>525.65</v>
+        <v>589.12</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CCc1cc2c(cc1NC(=O)N1CCC(N3CCOCC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2ccc(C(=O)NCCCCCCC(=O)NO)cc2)ncc1Cl</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4339,16 +4347,16 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>32</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CHEMBL3738493</t>
+          <t>CHEMBL4828946</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
+          <t>Inhibition of ALK (unknown origin) preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4388,7 +4396,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>CHEMBL3734710</t>
+          <t>CHEMBL4828709</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -4402,14 +4410,14 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA5E0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4421,21 +4429,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL3263979</t>
+          <t>CHEMBL3894226</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>436.95</v>
+        <v>360.37</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(C)CNCC3)ncc1Cl</t>
+          <t>CC1(C)c2cc(OCC(=O)O)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4454,16 +4462,16 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7.9</v>
+        <v>45.96</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CHEMBL3267806</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4503,28 +4511,24 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>CHEMBL3259567</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>ACS Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB840&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4536,21 +4540,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL1823223</t>
+          <t>CHEMBL3824301</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>468.6</v>
+        <v>550.11</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CC(C)c1cc2c(cc1N1CCN(C3COC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2C(C)=O)n1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4569,16 +4573,16 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>66.40000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CHEMBL1828297</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Inhibition of ALK activity by TR-FRET assay</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4593,7 +4597,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4618,7 +4622,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>CHEMBL1821705</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4628,18 +4632,18 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB610&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4651,21 +4655,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL3983559</t>
+          <t>CHEMBL3669141</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>485.58</v>
+        <v>560.72</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)N1CCC(Oc2ccc3c(c2)C(C)(C)c2[nH]c4cc(C#N)ccc4c2C3=O)CC1</t>
+          <t>COc1ccccc1-c1c(C(N)=O)sc2cnc(Nc3cc(C)c(N4CCC(N(C)C)C4)cc3OC(C)C)nc12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4684,16 +4688,16 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>52.71</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3887055</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>In Vitro Inhibition Assay: The reagents used have the following composition: Enzyme buffer (EB): 50 mM HEPES (pH: 7.0) (Sigma H7523), 100 mM NaCl (Sigma S7653), NaN.sub.3 at 0.01% (Sigma S8032), BSA at 0.005% (Sigma A2153), 0.05 mM sodium orthovanadate (Calbiochem 567540). Detection buffer (DB): 50 mM HEPES (pH: 7.0), BSA at 0.1%, 0.8 M KF (Fluka 60239), 20 mM EDTA (Sigma E5134).The peptide used is the one described in Biochemistry, 2005, 44, 8533-8542; A-21-K(biotin)NH.sub.2, obtained from NeoMPS (reference SP081233). All the HTRF reagents Mab PT66-K (61T66KLB) and streptavidin-XL665 (610SAXLB), and the SEB reagent, are purchased from Cisbio.The test is carried out in a 384-well plate (Greiner 784076). The serial dilutions are carried out in pure DMSO, and then an intermediate one-in-three dilution in water is carried out, with 1 microliter of each concentration being distributed, all these operations being performed using the Zephyr apparatus (Caliper Life Sciences).</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4708,7 +4712,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4733,7 +4737,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3639289</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4750,7 +4754,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB370&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4762,26 +4766,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL1796256</t>
+          <t>CHEMBL3936641</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>430</v>
+        <v>496.4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>COCCN1CCc2ccc(Nc3ncc(Cl)c(NC4CCCCC4)n3)cc2CC1</t>
+          <t>NC(=O)c1c(Nc2ccc(C3CCNCC3)cc2Cl)nc(Cc2ccccc2Cl)n2cnnc12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4795,16 +4799,16 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CHEMBL1798383</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4819,7 +4823,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4844,28 +4848,24 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>CHEMBL1795227</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA0A0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4877,21 +4877,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL3651872</t>
+          <t>CHEMBL3907048</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>519.6799999999999</v>
+        <v>542.46</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CCN1CCC(c2ccc(Nc3nc(Nc4ccccc4S(=O)(=O)C(C)C)c4c(C)[nH]nc4n3)cc2)C1</t>
+          <t>CC1(C)c2cc(OC3CCN(S(C)(=O)=O)CC3)c(Br)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>5.054</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4969,14 +4969,14 @@
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E98C0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4988,21 +4988,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL3736021</t>
+          <t>CHEMBL3357466</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>498.63</v>
+        <v>575.09</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CCc1cc2c(cc1N1CCN(CC3(CO)COC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)Cc3cc4ccccc4[nH]3)c2)ncc1Cl</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5021,16 +5021,16 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>95.3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CHEMBL3738494</t>
+          <t>CHEMBL3364272</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Inhibition of gatekeeper ALK L1196M mutant (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
+          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>CHEMBL3734710</t>
+          <t>CHEMBL3351234</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E87B0&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5103,21 +5103,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL3651862</t>
+          <t>CHEMBL4756753</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>563.73</v>
+        <v>625.15</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>COc1cc(C2CCN(C)CC2)c(C)cc1Nc1nc(Nc2ccccc2S(=O)(=O)C(C)C)c2c(C)[nH]nc2n1</t>
+          <t>CCN1CCN(C(=O)c2cccn2-c2ccc(Nc3ncc(Cl)c(Nc4ccccc4NS(C)(=O)=O)n3)c(OC)c2)CC1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL4672519</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition of wild-type ALK (unknown origin) incubated for 1 hr</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -5185,24 +5185,28 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL4665881</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem</t>
+        </is>
+      </c>
       <c r="V42" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD00B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB990&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5214,21 +5218,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL3786830</t>
+          <t>CHEMBL4777614</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>525.0599999999999</v>
+        <v>486</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CNC(=O)c1nn(C)cc1Nc1nc(Nc2cc(C)c(C3CCN(C)CC3)cc2OC2CC2)ncc1Cl</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCN=C2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5247,16 +5251,16 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CHEMBL3791910</t>
+          <t>CHEMBL4716189</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant human wild type ALK using tyrosine kinase substrate-biotin after 30 mins by HTRF assay</t>
+          <t>Inhibition of crizotinib-resistant ALK L1196M mutant (unknown origin) using peptide substrate incubated for 30 mins in presence of ATP by fluorescence assay</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -5296,7 +5300,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>CHEMBL3785058</t>
+          <t>CHEMBL4715694</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -5306,7 +5310,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg Med Chem</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -5317,7 +5321,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EAF80&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5329,21 +5333,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL3735349</t>
+          <t>CHEMBL4162252</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>435.53</v>
+        <v>683.1900000000001</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(-c3cnn(C4CCNCC4)c3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>COc1ccc(Nc2ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n2)cc1NC(=O)CNC(=O)c1cc(C(C)C)c(O)cc1O</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5362,16 +5366,16 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>53</v>
+        <v>2.6</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>CHEMBL3738493</t>
+          <t>CHEMBL4146207</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
+          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu,Tyr) 4:1 as substrate incubated for 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5411,7 +5415,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>CHEMBL3734710</t>
+          <t>CHEMBL4145454</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -5425,14 +5429,14 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8CF0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5444,26 +5448,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL3805254</t>
+          <t>CHEMBL3956713</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>578.66</v>
+        <v>555.42</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>COCC(COC)Nc1cc(N2CCN(C)CC2)ccc1C(=O)Nc1n[nH]c2ccc(Cc3cc(F)cc(F)c3)cc12</t>
+          <t>COc1cc(C(=O)N2CCOCC2)ccc1Nc1nc(Cc2c(Cl)cccc2Cl)n2ccnc2c1C(N)=O</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5477,16 +5481,16 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CHEMBL3806916</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) in presence of gamma33-ATP</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -5526,28 +5530,24 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>CHEMBL3804811</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD1150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E89E0&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5559,21 +5559,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL3978878</t>
+          <t>CHEMBL3651833</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>497.02</v>
+        <v>684.26</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(N3CCC(NS(C)(=O)=O)CC3)c(Cl)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>CC(C)Oc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)C(=O)N(C1CCN(C(=O)CN(C)C)CC1)C2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5592,16 +5592,16 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.864</v>
+        <v>6</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -5651,14 +5651,14 @@
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EBDF0&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5670,26 +5670,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL1779189</t>
+          <t>CHEMBL3983410</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>455.4</v>
+        <v>526.4299999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc(Br)ccc3c1C2=O</t>
+          <t>COc1ccc(N2CCNCC2)cc1Nc1nc(Cc2c(Cl)cccc2Cl)c2nc[nH]c2c1C(N)=O</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -5703,16 +5703,16 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CHEMBL1781770</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Inhibition of ALK assessed as biotin-EGPWLEEEEEAYGWMDF peptide phosphorylation by TR-FRET assay</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5752,28 +5752,24 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>CHEMBL1777813</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EBAE0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5785,21 +5781,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL3357448</t>
+          <t>CHEMBL4758571</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>555.0599999999999</v>
+        <v>535.99</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)[C@@H](N)Cc3c[nH]cn3)c2)ncc1Cl</t>
+          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc(-n3cccc3C(=O)NCCO)cc2OC)ncc1Cl</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5818,16 +5814,16 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>28</v>
+        <v>13.4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL4672520</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of ALK L1196M (unknown origin) incubated for 1 hr</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -5867,7 +5863,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL4665881</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -5877,18 +5873,18 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg Med Chem</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA8F0&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5900,21 +5896,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3892306</t>
+          <t>CHEMBL507625</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>401.51</v>
+        <v>518.6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CC(C)(C)NCCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>COc1cc(N2CCN(C(C)C)CC2)ccc1Nc1nc(Nc2cccc(F)c2C(N)=O)c2cc[nH]c2n1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5933,16 +5929,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6.73</v>
+        <v>0.5</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL1033170</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -5957,7 +5953,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5982,24 +5978,28 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL1154536</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V49" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9F50&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6011,21 +6011,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL3263991</t>
+          <t>CHEMBL3904285</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>498.05</v>
+        <v>579.11</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CC1CN(C)CCc2ccc(Nc3ncc(Cl)c(Nc4ccccc4S(=O)(=O)C4CC4)n3)cc21</t>
+          <t>COc1cc(N2CCN(C(C)=O)CC2)ccc1Nc1nc(Nc2ccc(N3CCN(C(C)=O)CC3)cc2)ncc1Cl</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>7.1</v>
+        <v>18</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CHEMBL3267806</t>
+          <t>CHEMBL3887132</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -6093,28 +6093,24 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>CHEMBL3259567</t>
+          <t>CHEMBL3886178</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>ACS Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB7D0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6126,19 +6122,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL3965090</t>
+          <t>CHEMBL3608533</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>523.6799999999999</v>
+        <v>560.08</v>
       </c>
       <c r="D51" t="n">
-        <v>5.95</v>
+        <v>3.73</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1c(c3ccc(NC(=O)Cc4ccccc4)cc3n1C)C2=O</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCN(C(=O)CO)CC2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6157,16 +6153,16 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>21307.8</v>
+        <v>10000</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3610967</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK L1196M mutant (unknown origin) by homogeneous time resolved fluorescence assay</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -6206,15 +6202,19 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3608257</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V51" t="n">
         <v>2015</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2B20&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6235,19 +6235,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL3397293</t>
+          <t>CHEMBL4111292</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>510.6</v>
+        <v>501.54</v>
       </c>
       <c r="D52" t="n">
-        <v>3.74</v>
+        <v>4.05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NCCCN3CCOCC3)nc(-c3cccnc3)n2)c1</t>
+          <t>CC1(C)c2cc(OC[C@H](O)CO)ccc2C(=O)c2c1oc1cc(OCC(=O)Nc3ccccc3)ccc21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6266,16 +6266,16 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>17600</v>
+        <v>17464.1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CHEMBL3399441</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -6315,19 +6315,15 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>CHEMBL3396973</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
         <v>2015</v>
       </c>
@@ -6336,7 +6332,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1C40&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6348,19 +6344,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHEMBL198399</t>
+          <t>CHEMBL3397293</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>460.53</v>
+        <v>510.6</v>
       </c>
       <c r="D53" t="n">
-        <v>3.49</v>
+        <v>3.74</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cc1cc(CN2CCN(C)CC2)ccc1NC(=O)c1cc(-c2ccc3c(c2)OCO3)cnc1O</t>
+          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NCCCN3CCOCC3)nc(-c3cccnc3)n2)c1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6379,16 +6375,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CHEMBL867052</t>
+          <t>CHEMBL3399441</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Inhibitory activity against ALK</t>
+          <t>Inhibition of ALK (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -6403,7 +6399,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6428,7 +6424,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>CHEMBL1149386</t>
+          <t>CHEMBL3396973</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -6438,18 +6434,18 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3920&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6461,19 +6457,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL3939589</t>
+          <t>CHEMBL427188</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>501.54</v>
+        <v>460.53</v>
       </c>
       <c r="D54" t="n">
-        <v>4.05</v>
+        <v>3.49</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OC[C@@H](O)CO)ccc2C(=O)c2c1oc1cc(OCC(=O)Nc3ccccc3)ccc21</t>
+          <t>COc1ncc(-c2ccc3c(c2)OCO3)cc1C(=O)Nc1ccc(CN2CCN(C)CC2)cc1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6492,16 +6488,16 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>17464.1</v>
+        <v>20300</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL867052</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibitory activity against ALK</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6516,7 +6512,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6541,24 +6537,28 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL1149386</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V54" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3B50&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6570,19 +6570,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHEMBL427188</t>
+          <t>CHEMBL3965090</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>460.53</v>
+        <v>523.6799999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>3.49</v>
+        <v>5.95</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>COc1ncc(-c2ccc3c(c2)OCO3)cc1C(=O)Nc1ccc(CN2CCN(C)CC2)cc1</t>
+          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1c(c3ccc(NC(=O)Cc4ccccc4)cc3n1C)C2=O</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6601,16 +6601,16 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>20300</v>
+        <v>21307.8</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CHEMBL867052</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Inhibitory activity against ALK</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6650,28 +6650,24 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>CHEMBL1149386</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1540&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6683,19 +6679,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CHEMBL4441825</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>CHEMBL1789961</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GW513184X</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>499.35</v>
+        <v>360.38</v>
       </c>
       <c r="D56" t="n">
-        <v>3.89</v>
+        <v>2.98</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@@H]2CN[C@H](CCO)C[C@H]2c2ccc(F)c(F)c2)oc1Cl</t>
+          <t>COc1cc(C=NNc2ncnc3c2cnn3-c2ccccc2)ccc1O</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6714,16 +6714,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13.8</v>
+        <v>6.69</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CHEMBL4407376</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK at 0.5 uM by mobility shift assay relative to control</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6763,28 +6763,22 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>CHEMBL4406807</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
-      <c r="V56" t="n">
-        <v>2019</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1070&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6796,19 +6790,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHEMBL1909343</t>
+          <t>CHEMBL1909406</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>394.31</v>
+        <v>333.82</v>
       </c>
       <c r="D57" t="n">
-        <v>1.76</v>
+        <v>3.86</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>O=C(Nc1n[nH]c2nnc(-c3cccnc3)cc12)C1CC1</t>
+          <t>Fc1ccc(-c2nc3n(c2-c2ccncc2)CCS3)cc1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6827,7 +6821,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.54</v>
+        <v>0.29</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -6891,7 +6885,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A18C0&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6903,19 +6897,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHEMBL1909345</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>CHEMBL272414</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GW416469X</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>422.87</v>
+        <v>358.42</v>
       </c>
       <c r="D58" t="n">
-        <v>2.97</v>
+        <v>1.81</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CCN1CCC(C(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
+          <t>CN(C)c1ccc2c(c1)/C(=C/Nc1ccc(S(N)(=O)=O)cc1)C(=O)N2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6934,16 +6932,16 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.15</v>
+        <v>8.32</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6998,7 +6996,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0270&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -7010,23 +7008,23 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CHEMBL441702</t>
+          <t>CHEMBL516248</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GSK-270822A</t>
+          <t>GW804482X</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>396.45</v>
+        <v>379.44</v>
       </c>
       <c r="D59" t="n">
-        <v>4.23</v>
+        <v>3.77</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
+          <t>COc1cccc(COc2cc(-n3cnc4ccccc43)sc2C(N)=O)c1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7045,7 +7043,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7.11</v>
+        <v>2.9</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -7109,7 +7107,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0430&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7121,19 +7119,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CHEMBL397570</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>CHEMBL480371</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GW853609X</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>300.36</v>
+        <v>496.31</v>
       </c>
       <c r="D60" t="n">
-        <v>3.89</v>
+        <v>5.55</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
+          <t>NC(=O)c1sc(-n2cnc3cc(C(F)(F)F)ccc32)cc1OCc1ccccc1Br</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7152,7 +7154,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -7216,7 +7218,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1A10&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7228,23 +7230,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHEMBL522709</t>
+          <t>CHEMBL483748</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GSK-317315A</t>
+          <t>GSK-953913A</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>461.47</v>
+        <v>390.46</v>
       </c>
       <c r="D61" t="n">
-        <v>5.35</v>
+        <v>4.13</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
+          <t>NS(=O)(=O)c1ccc(-c2cc3ccncc3cc2OCc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7263,7 +7265,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2.16</v>
+        <v>15.51</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -7327,7 +7329,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0970&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7339,23 +7341,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHEMBL1789961</t>
+          <t>CHEMBL218969</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GW513184X</t>
+          <t>GW445015X</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>360.38</v>
+        <v>252.32</v>
       </c>
       <c r="D62" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COc1cc(C=NNc2ncnc3c2cnn3-c2ccccc2)ccc1O</t>
+          <t>CNC(=O)c1cncc(/C=C/c2ccccc2C)c1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7374,7 +7376,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6.69</v>
+        <v>4.22</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -7438,7 +7440,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3A70&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7450,19 +7452,23 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHEMBL185710</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>CHEMBL188426</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GW807982X</t>
+        </is>
+      </c>
       <c r="C63" t="n">
-        <v>230.23</v>
+        <v>430.39</v>
       </c>
       <c r="D63" t="n">
-        <v>1.08</v>
+        <v>4.36</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
+          <t>CCOc1ccc2c(-c3ccnc(Nc4cc(OC)cc(C(F)(F)F)c4)n3)cnn2n1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7481,16 +7487,16 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7545,7 +7551,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1230&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7557,23 +7563,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHEMBL230911</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GSK-625137A</t>
-        </is>
-      </c>
+          <t>CHEMBL185962</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>289.34</v>
+        <v>242.24</v>
       </c>
       <c r="D64" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NC(=O)c1cc(-c2ccncc2)cc(-c2ccccc2)c1N</t>
+          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7592,7 +7594,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5.19</v>
+        <v>0.48</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -7656,7 +7658,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1EE0&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7668,19 +7670,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHEMBL408564</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>CHEMBL1794055</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GW589933X</t>
+        </is>
+      </c>
       <c r="C65" t="n">
-        <v>347.17</v>
+        <v>372.43</v>
       </c>
       <c r="D65" t="n">
-        <v>3.33</v>
+        <v>2.35</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>O=C(Nc1n[nH]c2nc(-c3ccco3)c(Br)cc12)C1CC1</t>
+          <t>NS(=O)(=O)c1ccc(NC=C2C(=O)Nc3ccc4ncsc4c32)cc1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7699,7 +7705,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.26</v>
+        <v>7.33</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -7763,7 +7769,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0B30&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7775,19 +7781,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHEMBL1082876</t>
+          <t>CHEMBL365072</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>516.91</v>
+        <v>258.29</v>
       </c>
       <c r="D66" t="n">
-        <v>5.05</v>
+        <v>1.65</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>C[C@H](O)CNc1nccc(-n2ccnc2-c2cccc(NC(=O)c3ccc(Cl)c(C(F)(F)F)c3)c2)n1</t>
+          <t>CCc1nccc2c1nc(-c1nonc1N)n2CC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7806,16 +7812,16 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CHEMBL1101912</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Inhibition of ALK at 10 uM</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7855,28 +7861,22 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>CHEMBL1155370</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>2010</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A11C0&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7888,23 +7888,23 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CHEMBL426800</t>
+          <t>CHEMBL441702</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GW785404X</t>
+          <t>GSK-270822A</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>247.23</v>
+        <v>396.45</v>
       </c>
       <c r="D67" t="n">
-        <v>1.83</v>
+        <v>4.23</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2ccc(F)cc21</t>
+          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5.27</v>
+        <v>7.11</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A22D0&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -7999,23 +7999,23 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CHEMBL218859</t>
+          <t>CHEMBL1909341</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GW445012X</t>
+          <t>GW641155A</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>266.34</v>
+        <v>364.83</v>
       </c>
       <c r="D68" t="n">
-        <v>3.23</v>
+        <v>5.88</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cncc(/C=C/c2c(C)cccc2C)c1</t>
+          <t>c1ccc(Oc2ccc(Nc3ncc(-c4ccccc4)o3)cc2)cc1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8034,16 +8034,16 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>-3.56</v>
+        <v>2.22</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0350&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8110,23 +8110,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHEMBL506414</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>GW684626B</t>
-        </is>
-      </c>
+          <t>CHEMBL274863</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>467.98</v>
+        <v>382.44</v>
       </c>
       <c r="D69" t="n">
-        <v>7.53</v>
+        <v>2.45</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fc1cccc(COc2ccc(Nc3ncnc4sc(-c5cccs5)cc34)cc2Cl)c1</t>
+          <t>Nc1nccc(-c2c(-c3ccc(F)cc3)ncn2CCCN2CCOCC2)n1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8145,16 +8141,16 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.25</v>
+        <v>4.91</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -8209,7 +8205,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2C70&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8221,19 +8217,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHEMBL160333</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>CHEMBL103104</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GW831090X</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>349.17</v>
+        <v>330.37</v>
       </c>
       <c r="D70" t="n">
-        <v>3.18</v>
+        <v>2.17</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
+          <t>NS(=O)(=O)c1ccc(Nc2cc(-c3cccc(O)c3)n[nH]2)cc1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8252,16 +8252,16 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4.45</v>
+        <v>3.58</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A23B0&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8328,19 +8328,23 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CHEMBL237570</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>CHEMBL275473</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GW572401X</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>467.59</v>
+        <v>401.49</v>
       </c>
       <c r="D71" t="n">
-        <v>6.02</v>
+        <v>4.12</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc([S+](C)[O-])cc4C)n3C)ccc2c1</t>
+          <t>CCN(CC)S(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3ccccc3)o2)c1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8359,16 +8363,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2.15</v>
+        <v>0.5</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -8423,7 +8427,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2260&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8435,23 +8439,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CHEMBL272165</t>
+          <t>CHEMBL443563</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GW300657X</t>
+          <t>GW627512B</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450.48</v>
+        <v>326.35</v>
       </c>
       <c r="D72" t="n">
-        <v>1.43</v>
+        <v>4.11</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCc4ccncc4)cc32)cc1</t>
+          <t>COc1cc(Nc2ncc(-c3ccccc3)o2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8470,7 +8474,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.39</v>
+        <v>-2.74</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -8534,7 +8538,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0EB0&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8546,23 +8550,23 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CHEMBL272414</t>
+          <t>CHEMBL1909398</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GW416469X</t>
+          <t>GW282536X</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>358.42</v>
+        <v>330.37</v>
       </c>
       <c r="D73" t="n">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc2c(c1)/C(=C/Nc1ccc(S(N)(=O)=O)cc1)C(=O)N2</t>
+          <t>Cc1cccc2c1NC(=O)/C2=N\Nc1ccc(S(N)(=O)=O)cc1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8581,16 +8585,16 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.86</v>
+        <v>4.7</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -8645,7 +8649,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9842E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2570&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8657,23 +8661,23 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CHEMBL514162</t>
+          <t>CHEMBL231623</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GW852849X</t>
+          <t>GSK-620503A</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>443.91</v>
+        <v>307.33</v>
       </c>
       <c r="D74" t="n">
-        <v>4.44</v>
+        <v>3.24</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>NC(=O)c1cc(-c2ccc(F)cc2)cc(-c2ccncc2)c1N</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8692,16 +8696,16 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1.53</v>
+        <v>4.91</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -8756,7 +8760,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1E70&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8768,23 +8772,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CHEMBL247228</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>GW770249X</t>
-        </is>
-      </c>
+          <t>CHEMBL1909343</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>431.35</v>
+        <v>394.31</v>
       </c>
       <c r="D75" t="n">
-        <v>5.27</v>
+        <v>1.76</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)c12</t>
+          <t>O=C(Nc1n[nH]c2nnc(-c3cccnc3)cc12)C1CC1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>-1.14</v>
+        <v>0.19</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0510&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -8879,23 +8879,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CHEMBL1794073</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>GW770220A</t>
-        </is>
-      </c>
+          <t>CHEMBL2062289</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>459.96</v>
+        <v>550.52</v>
       </c>
       <c r="D76" t="n">
-        <v>2.83</v>
+        <v>3.36</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cc1nn(C)c2cc(N(C)c3ccnc(Nc4cccc(S(N)(=O)=O)c4)n3)ccc12</t>
+          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8914,16 +8910,16 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3.45</v>
+        <v>0.86</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -8978,7 +8974,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9845F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A35A0&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -8990,19 +8986,23 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CHEMBL188240</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
+          <t>CHEMBL1909351</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GW824645A</t>
+        </is>
+      </c>
       <c r="C77" t="n">
-        <v>274.28</v>
+        <v>368.82</v>
       </c>
       <c r="D77" t="n">
-        <v>1.48</v>
+        <v>2.61</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CCOc1nccc2c1nc(-c1nonc1N)n2CC</t>
+          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2.69</v>
+        <v>1.3</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1930&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9097,19 +9097,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHEMBL266707</t>
+          <t>CHEMBL408564</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>297.36</v>
+        <v>347.17</v>
       </c>
       <c r="D78" t="n">
-        <v>3.86</v>
+        <v>3.33</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2c(-c3ccncc3)nc3n2CCS3)cc1</t>
+          <t>O=C(Nc1n[nH]c2nc(-c3ccco3)c(Br)cc12)C1CC1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>-2.59</v>
+        <v>1.26</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9847B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A06D0&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9204,23 +9204,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CHEMBL1909368</t>
+          <t>CHEMBL517666</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GW683134A</t>
+          <t>GW796921X</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>575.91</v>
+        <v>336.44</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>4.15</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccco4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
+          <t>CCC(=O)Nc1ccc(C)c(-c2ccc(C(=O)NCC3CC3)cc2)c1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9239,16 +9239,16 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>7.58</v>
+        <v>1.63</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1850&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9315,23 +9315,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CHEMBL477583</t>
+          <t>CHEMBL1909368</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GW743024X</t>
+          <t>GW683134A</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>374.44</v>
+        <v>575.91</v>
       </c>
       <c r="D80" t="n">
-        <v>4.65</v>
+        <v>7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccoc2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccco4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9350,16 +9350,16 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1.85</v>
+        <v>7.58</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3680&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9426,23 +9426,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CHEMBL483747</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>GSK-980961A</t>
-        </is>
-      </c>
+          <t>CHEMBL160937</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>390.46</v>
+        <v>314.73</v>
       </c>
       <c r="D81" t="n">
-        <v>4.13</v>
+        <v>2.53</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(-c2cc3ccncc3cc2OCc2ccccc2)c1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9461,7 +9457,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2.82</v>
+        <v>2.43</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -9525,7 +9521,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2F10&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9537,19 +9533,23 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHEMBL419903</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>CHEMBL263796</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GW445014X</t>
+        </is>
+      </c>
       <c r="C82" t="n">
-        <v>295.32</v>
+        <v>307.18</v>
       </c>
       <c r="D82" t="n">
-        <v>3.72</v>
+        <v>3.92</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
+          <t>CNC(=O)c1cncc(/C=C/c2c(Cl)cccc2Cl)c1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2.06</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3BC0&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9644,23 +9644,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CHEMBL65884</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>GW817396X</t>
-        </is>
-      </c>
+          <t>CHEMBL185710</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>362.37</v>
+        <v>230.23</v>
       </c>
       <c r="D83" t="n">
-        <v>3.41</v>
+        <v>1.08</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(F)cc4)ncnc32)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9679,7 +9675,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3.76</v>
+        <v>1.87</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -9743,7 +9739,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1000&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9755,23 +9751,23 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CHEMBL1909349</t>
+          <t>CHEMBL1794067</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GSK-1007102B</t>
+          <t>GSK-978744A</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>561.52</v>
+        <v>487.97</v>
       </c>
       <c r="D84" t="n">
-        <v>2.28</v>
+        <v>3.71</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CN)c3ccccc3)cc21</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC[C@@H](O)CO)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9790,16 +9786,16 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.41</v>
+        <v>4.65</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -9854,7 +9850,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A20A0&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9866,23 +9862,23 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHEMBL1794067</t>
+          <t>CHEMBL273564</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GSK-978744A</t>
+          <t>GW795493X</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>487.97</v>
+        <v>413.36</v>
       </c>
       <c r="D85" t="n">
-        <v>3.71</v>
+        <v>5.13</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC[C@@H](O)CO)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cccc(C(F)(F)F)c4)cc3)c12</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9901,16 +9897,16 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4.65</v>
+        <v>6.2</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -9965,7 +9961,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0F90&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9977,23 +9973,23 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CHEMBL233001</t>
+          <t>CHEMBL506414</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GW620972X</t>
+          <t>GW684626B</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>332.43</v>
+        <v>467.98</v>
       </c>
       <c r="D86" t="n">
-        <v>4.9</v>
+        <v>7.53</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
+          <t>Fc1cccc(COc2ccc(Nc3ncnc4sc(-c5cccs5)cc34)cc2Cl)c1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -10012,16 +10008,16 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2.92</v>
+        <v>0.57</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -10076,7 +10072,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A10E0&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10088,19 +10084,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CHEMBL4553144</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>CHEMBL359999</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GW801372X</t>
+        </is>
+      </c>
       <c r="C87" t="n">
-        <v>548.95</v>
+        <v>348.37</v>
       </c>
       <c r="D87" t="n">
-        <v>7.53</v>
+        <v>2.95</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
+          <t>COc1cc(Nc2nccc(-c3cnn4ncccc34)n2)cc(OC)c1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -10119,16 +10119,16 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3.5</v>
+        <v>5.68</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>CHEMBL4313437</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10168,28 +10168,22 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>CHEMBL4311959</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>2019</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
       <c r="W87" t="n">
         <v>0</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F31B0&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10201,19 +10195,23 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHEMBL157258</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>CHEMBL1909388</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GW568377A</t>
+        </is>
+      </c>
       <c r="C88" t="n">
-        <v>383.62</v>
+        <v>565.1</v>
       </c>
       <c r="D88" t="n">
-        <v>3.83</v>
+        <v>5.35</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
+          <t>CS(=O)(=O)CCNCc1ccoc1-c1ccc2ncnc(Nc3ccc(OCc4ccccc4)cc3)c2c1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -10232,16 +10230,16 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2.14</v>
+        <v>1.21</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -10296,7 +10294,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2960&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10343,16 +10341,16 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>7.04</v>
+        <v>6.43</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -10407,7 +10405,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2180&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10419,23 +10417,23 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CHEMBL473420</t>
+          <t>CHEMBL179453</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GSK-1030058A</t>
+          <t>GW622055X</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>492.48</v>
+        <v>392.86</v>
       </c>
       <c r="D90" t="n">
-        <v>5.49</v>
+        <v>4.54</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>COC(=O)c1sc(-n2cnc3cc(OC)c(OC)cc32)cc1OCc1ccccc1C(F)(F)F</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3ccccc3Cl)o2)c1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10454,16 +10452,16 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3.59</v>
+        <v>5.19</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -10518,7 +10516,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3300&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10530,19 +10528,23 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHEMBL4851419</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>CHEMBL1909390</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GW576609A</t>
+        </is>
+      </c>
       <c r="C91" t="n">
-        <v>546.55</v>
+        <v>691.1</v>
       </c>
       <c r="D91" t="n">
-        <v>5.78</v>
+        <v>6.57</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2C(F)(F)F)c1</t>
+          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6cccc(F)c6)c(Cl)c5)c4c3)o2)CC1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10561,16 +10563,16 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>7.6</v>
+        <v>3.34</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>CHEMBL4828942</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 100 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -10585,7 +10587,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10610,28 +10612,22 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>CHEMBL4828709</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>2021</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
       <c r="W91" t="n">
         <v>0</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1A10&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10643,23 +10639,23 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CHEMBL481510</t>
+          <t>CHEMBL1096634</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GW853606X</t>
+          <t>GSK-943949A</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>496.31</v>
+        <v>447.5</v>
       </c>
       <c r="D92" t="n">
-        <v>5.55</v>
+        <v>2.28</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc(-n2cnc3ccc(C(F)(F)F)cc32)cc1OCc1ccccc1Br</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -10678,7 +10674,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1.39</v>
+        <v>5.79</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -10742,7 +10738,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2AB0&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -10754,23 +10750,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL218970</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>GW445017X</t>
-        </is>
-      </c>
+          <t>CHEMBL237570</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>272.74</v>
+        <v>467.59</v>
       </c>
       <c r="D93" t="n">
-        <v>3.27</v>
+        <v>6.02</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cncc(/C=C/c2ccccc2Cl)c1</t>
+          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc([S+](C)[O-])cc4C)n3C)ccc2c1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10789,16 +10781,16 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.92</v>
+        <v>-0.66</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -10853,7 +10845,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3990&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -10865,19 +10857,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL160876</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>CHEMBL517507</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GW782912X</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>377.18</v>
+        <v>362.47</v>
       </c>
       <c r="D94" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccc(Cl)cc2)=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
+          <t>Cc1ccc(C(=O)NC2CCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10896,16 +10892,16 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>-1.12</v>
+        <v>2.79</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -10960,7 +10956,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3140&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -10972,23 +10968,23 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL1794065</t>
+          <t>CHEMBL186213</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GSK-554170A</t>
+          <t>GW827105X</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>539.52</v>
+        <v>462.44</v>
       </c>
       <c r="D95" t="n">
-        <v>1.58</v>
+        <v>5.62</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
+          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3cccc(C(F)(F)F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -11007,16 +11003,16 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>-2.65</v>
+        <v>5.15</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -11071,7 +11067,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1850&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11083,23 +11079,23 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL103104</t>
+          <t>CHEMBL427058</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GW831090X</t>
+          <t>GSK-466317A</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>330.37</v>
+        <v>448.83</v>
       </c>
       <c r="D96" t="n">
-        <v>2.17</v>
+        <v>4.75</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(Nc2cc(-c3cccc(O)c3)n[nH]2)cc1</t>
+          <t>CC1=C(C(=O)Nc2cc(Cl)c3[nH]ncc3c2)C(c2ccc(C(F)(F)F)cc2)CC(=O)N1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -11118,16 +11114,16 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>7.98</v>
+        <v>2.22</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -11182,7 +11178,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2030&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11194,23 +11190,23 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL434729</t>
+          <t>CHEMBL426800</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GW829906X</t>
+          <t>GW785404X</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>446.44</v>
+        <v>247.23</v>
       </c>
       <c r="D97" t="n">
-        <v>5.92</v>
+        <v>1.83</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4cccc(C(F)(F)F)c4)n3)c(-c3ccccc3)nn2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2ccc(F)cc21</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11229,16 +11225,16 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>3.25</v>
+        <v>5.27</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -11293,7 +11289,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F26C0&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11305,19 +11301,23 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL274863</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>CHEMBL207410</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GW772405X</t>
+        </is>
+      </c>
       <c r="C98" t="n">
-        <v>382.44</v>
+        <v>486.93</v>
       </c>
       <c r="D98" t="n">
-        <v>2.45</v>
+        <v>5.35</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c(-c3ccc(F)cc3)ncn2CCCN2CCOCC2)n1</t>
+          <t>CNC(=O)c1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4.91</v>
+        <v>3.83</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3920&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11412,23 +11412,23 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL183993</t>
+          <t>CHEMBL270054</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GW811761X</t>
+          <t>GW280670X</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>400.36</v>
+        <v>350.79</v>
       </c>
       <c r="D99" t="n">
-        <v>4.35</v>
+        <v>1.76</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CCOc1ccc2c(-c3ccnc(Nc4cccc(C(F)(F)F)c4)n3)cnn2n1</t>
+          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(Cl)cc32)cc1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11447,16 +11447,16 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2.18</v>
+        <v>5.53</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F29D0&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11523,23 +11523,23 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL275473</t>
+          <t>CHEMBL361237</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GW572401X</t>
+          <t>GW785804X</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>401.49</v>
+        <v>322.37</v>
       </c>
       <c r="D100" t="n">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CCN(CC)S(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3ccccc3)o2)c1</t>
+          <t>Nc1nc(-c2ccc(F)cc2)c(-c2ccc3ncccc3n2)s1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4.19</v>
+        <v>5.68</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1D90&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11634,23 +11634,23 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL185939</t>
+          <t>CHEMBL272026</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GW828525X</t>
+          <t>GW290597X</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>490.45</v>
+        <v>467.51</v>
       </c>
       <c r="D101" t="n">
-        <v>5.39</v>
+        <v>1.12</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)cc1</t>
+          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -11669,16 +11669,16 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>-1.39</v>
+        <v>11.1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2810&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -11745,23 +11745,23 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL517507</t>
+          <t>CHEMBL1794066</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GW782912X</t>
+          <t>GSK-619487A</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>362.47</v>
+        <v>525.49</v>
       </c>
       <c r="D102" t="n">
-        <v>4.08</v>
+        <v>1.34</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -11780,16 +11780,16 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3.48</v>
+        <v>1.83</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9844A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2880&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -11856,19 +11856,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHEMBL185962</t>
+          <t>CHEMBL156987</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>242.24</v>
+        <v>377.18</v>
       </c>
       <c r="D103" t="n">
-        <v>1.4</v>
+        <v>3.17</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
+          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11887,16 +11887,16 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2EA0&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -11963,23 +11963,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHEMBL1909373</t>
+          <t>CHEMBL1909367</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GW701427A</t>
+          <t>GW680908A</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>497.9</v>
+        <v>587.9400000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>4.88</v>
+        <v>5.38</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(C(=O)O)c4)cc3)ccc2[nH]1</t>
+          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11998,7 +11998,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>-1.37</v>
+        <v>3.54</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3D10&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12074,23 +12074,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHEMBL529066</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>GW574783B</t>
-        </is>
-      </c>
+          <t>CHEMBL419903</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>599.54</v>
+        <v>295.32</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>3.72</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Cl)c4)c3c2)o1</t>
+          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12109,16 +12105,16 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1.08</v>
+        <v>2.06</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -12173,7 +12169,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9846D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3370&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12185,23 +12181,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHEMBL365663</t>
+          <t>CHEMBL234838</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GW780159X</t>
+          <t>GW572738X</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>338.82</v>
+        <v>300.36</v>
       </c>
       <c r="D106" t="n">
-        <v>4.66</v>
+        <v>3.89</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
+          <t>N#Cc1c(NC(=O)c2ccccc2F)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -12220,16 +12216,16 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>7.43</v>
+        <v>-1.14</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -12284,7 +12280,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1BD0&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12296,23 +12292,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHEMBL1909398</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>GW282536X</t>
-        </is>
-      </c>
+          <t>CHEMBL1082876</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>330.37</v>
+        <v>516.91</v>
       </c>
       <c r="D107" t="n">
-        <v>1.41</v>
+        <v>5.05</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Cc1cccc2c1NC(=O)/C2=N\Nc1ccc(S(N)(=O)=O)cc1</t>
+          <t>C[C@H](O)CNc1nccc(-n2ccnc2-c2cccc(NC(=O)c3ccc(Cl)c(C(F)(F)F)c3)c2)n1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12331,16 +12323,16 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1101912</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of ALK at 10 uM</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -12380,22 +12372,28 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL1155370</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
+        <v>2010</v>
+      </c>
       <c r="W107" t="n">
         <v>0</v>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2420&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12407,23 +12405,23 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHEMBL1909386</t>
+          <t>CHEMBL434729</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GW566221A</t>
+          <t>GW829906X</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>565.1</v>
+        <v>446.44</v>
       </c>
       <c r="D108" t="n">
-        <v>5.35</v>
+        <v>5.92</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1coc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)cc4)c3c2)c1</t>
+          <t>Cc1ccc2c(-c3ccnc(Nc4cccc(C(F)(F)F)c4)n3)c(-c3ccccc3)nn2n1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -12442,7 +12440,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>9.68</v>
+        <v>3.77</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -12506,7 +12504,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9849E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3A70&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12518,23 +12516,23 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CHEMBL1909351</t>
+          <t>CHEMBL1909392</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GW824645A</t>
+          <t>GW580496A</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>368.82</v>
+        <v>643.99</v>
       </c>
       <c r="D109" t="n">
-        <v>2.61</v>
+        <v>6.11</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Br)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -12553,16 +12551,16 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1.3</v>
+        <v>1.84</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -12617,7 +12615,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9840B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F22D0&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12629,23 +12627,23 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHEMBL1909390</t>
+          <t>CHEMBL69757</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GW576609A</t>
+          <t>GW817394X</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>691.1</v>
+        <v>362.37</v>
       </c>
       <c r="D110" t="n">
-        <v>6.57</v>
+        <v>3.41</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6cccc(F)c6)c(Cl)c5)c4c3)o2)CC1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4cccc(F)c4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -12664,16 +12662,16 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>7.82</v>
+        <v>-1.54</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -12728,7 +12726,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F36F0&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -12740,19 +12738,23 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHEMBL1510393</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>CHEMBL189415</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>GW819077X</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>390.49</v>
+        <v>432.41</v>
       </c>
       <c r="D111" t="n">
-        <v>3.39</v>
+        <v>5.62</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c(S(=O)(=O)Nc2ccc(O)c(Sc3nc[nH]n3)c2)c(C)c1</t>
+          <t>FC(F)(F)c1cccc(Nc2nccc(-c3cnn4nc(-c5ccccc5)ccc34)n2)c1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -12771,16 +12773,16 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>17.98</v>
+        <v>1.89</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>CHEMBL2438115</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 10 uM after 30 mins by fluorescence assay relative to control</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -12795,7 +12797,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12820,28 +12822,22 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>CHEMBL2434840</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V111" t="n">
-        <v>2013</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
       <c r="W111" t="n">
         <v>0</v>
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F17E0&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -12853,23 +12849,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHEMBL1909367</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>GW680908A</t>
-        </is>
-      </c>
+          <t>CHEMBL1510393</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>587.9400000000001</v>
+        <v>390.49</v>
       </c>
       <c r="D112" t="n">
-        <v>5.38</v>
+        <v>3.39</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
+          <t>Cc1cc(C)c(S(=O)(=O)Nc2ccc(O)c(Sc3nc[nH]n3)c2)c(C)c1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -12888,16 +12880,16 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2.66</v>
+        <v>17.98</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL2438115</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of ALK (unknown origin) at 10 uM after 30 mins by fluorescence assay relative to control</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -12912,7 +12904,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -12937,22 +12929,28 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL2434840</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Eur. J. Med. Chem.</t>
+        </is>
+      </c>
+      <c r="V112" t="n">
+        <v>2013</v>
+      </c>
       <c r="W112" t="n">
         <v>0</v>
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9863B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F30D0&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -12964,23 +12962,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHEMBL1794062</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>GW577921A</t>
-        </is>
-      </c>
+          <t>CHEMBL4440965</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>302.76</v>
+        <v>526.37</v>
       </c>
       <c r="D113" t="n">
-        <v>4.09</v>
+        <v>3.65</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>COc1ccccc1Nc1ncc(-c2ccccc2)o1</t>
+          <t>CNC(=O)C[C@@H]1C[C@@H](c2ccc(F)c(F)c2)[C@H](NC(=O)c2cc(-c3c(Cl)cnn3C)c(Cl)o2)CN1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12999,16 +12993,16 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>4.54</v>
+        <v>8.5</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL4407376</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of human ALK at 0.5 uM by mobility shift assay relative to control</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -13023,7 +13017,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -13048,22 +13042,28 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4406807</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>J Med Chem</t>
+        </is>
+      </c>
+      <c r="V113" t="n">
+        <v>2019</v>
+      </c>
       <c r="W113" t="n">
         <v>0</v>
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F986490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1FC0&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13075,19 +13075,23 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHEMBL4078898</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
+          <t>CHEMBL514162</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>GW852849X</t>
+        </is>
+      </c>
       <c r="C114" t="n">
-        <v>414.95</v>
+        <v>443.91</v>
       </c>
       <c r="D114" t="n">
-        <v>4.07</v>
+        <v>4.44</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CC(C)n1cnc2c(Nc3cc(N)cc(Cl)c3)nc(N[C@@H]3CCCC[C@@H]3N)nc21</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -13106,16 +13110,16 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>CHEMBL4003777</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using casein as substrate in presence of [gamma-33P]ATP at 1 uM after 40 mins by scintillation counter method</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -13130,7 +13134,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -13155,28 +13159,22 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>CHEMBL4002601</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
-      <c r="V114" t="n">
-        <v>2017</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
       <c r="W114" t="n">
         <v>0</v>
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2F80&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13188,23 +13186,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CHEMBL1909364</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>GW589961A</t>
-        </is>
-      </c>
+          <t>CHEMBL4559825</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>488.33</v>
+        <v>631.96</v>
       </c>
       <c r="D115" t="n">
-        <v>5.83</v>
+        <v>8.94</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2ccc(Oc3ccc(NC(=O)Nc4cccc(Cl)c4)cc3)cc2[nH]1</t>
+          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -13223,16 +13217,16 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1.45</v>
+        <v>-3.13</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL4313437</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of human ALK at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -13247,7 +13241,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -13272,22 +13266,28 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4311959</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Eur J Med Chem</t>
+        </is>
+      </c>
+      <c r="V115" t="n">
+        <v>2019</v>
+      </c>
       <c r="W115" t="n">
         <v>0</v>
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1A80&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13299,23 +13299,23 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CHEMBL270054</t>
+          <t>CHEMBL1909370</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GW280670X</t>
+          <t>GW694234A</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>350.79</v>
+        <v>532.78</v>
       </c>
       <c r="D116" t="n">
-        <v>1.76</v>
+        <v>5.94</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(Cl)cc32)cc1</t>
+          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(Br)c4)cc3)ccc2[nH]1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13334,16 +13334,16 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5.53</v>
+        <v>2.06</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -13398,7 +13398,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2E30&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13410,23 +13410,23 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL427058</t>
+          <t>CHEMBL1909364</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GSK-466317A</t>
+          <t>GW589961A</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>448.83</v>
+        <v>488.33</v>
       </c>
       <c r="D117" t="n">
-        <v>4.75</v>
+        <v>5.83</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2cc(Cl)c3[nH]ncc3c2)C(c2ccc(C(F)(F)F)cc2)CC(=O)N1</t>
+          <t>COC(=O)Nc1nc2ccc(Oc3ccc(NC(=O)Nc4cccc(Cl)c4)cc3)cc2[nH]1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3760&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13521,19 +13521,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL13868</t>
+          <t>CHEMBL14014</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>507.57</v>
+        <v>433.46</v>
       </c>
       <c r="D118" t="n">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Oc4ccccc4)cc3)n2)cc1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>4.48</v>
+        <v>4.16</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9843C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1EE0&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13628,23 +13628,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL179465</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>GW621970X</t>
-        </is>
-      </c>
+          <t>CHEMBL4066861</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>376.41</v>
+        <v>399.93</v>
       </c>
       <c r="D119" t="n">
-        <v>4.03</v>
+        <v>4.49</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(F)c3)o2)c1</t>
+          <t>CC(C)n1cnc2c(Nc3cccc(Cl)c3)nc(N[C@@H]3CCCC[C@@H]3N)nc21</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13663,16 +13659,16 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>4.12</v>
+        <v>-2</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL4003777</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of human ALK using casein as substrate in presence of [gamma-33P]ATP at 1 uM after 40 mins by scintillation counter method</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -13687,7 +13683,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -13712,22 +13708,28 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4002601</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem Lett</t>
+        </is>
+      </c>
+      <c r="V119" t="n">
+        <v>2017</v>
+      </c>
       <c r="W119" t="n">
         <v>0</v>
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3530&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13739,23 +13741,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL207410</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GW772405X</t>
-        </is>
-      </c>
+          <t>CHEMBL4851419</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>486.93</v>
+        <v>546.55</v>
       </c>
       <c r="D120" t="n">
-        <v>5.35</v>
+        <v>5.78</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
+          <t>COc1cccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -13774,16 +13772,16 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>3.83</v>
+        <v>7.6</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL4828942</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of ALK (unknown origin) at 100 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -13798,7 +13796,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -13823,22 +13821,28 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4828709</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Eur J Med Chem</t>
+        </is>
+      </c>
+      <c r="V120" t="n">
+        <v>2021</v>
+      </c>
       <c r="W120" t="n">
         <v>0</v>
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9869D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2730&gt;</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -13850,19 +13854,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CHEMBL4088144</t>
+          <t>CHEMBL4858028</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>399.93</v>
+        <v>527.03</v>
       </c>
       <c r="D121" t="n">
-        <v>4.49</v>
+        <v>5.72</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CC(C)n1cnc2c(Nc3cccc(Cl)c3)nc(N[C@H]3CCCC[C@@H]3N)nc21</t>
+          <t>COc1ccc(C)c(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)c1</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -13881,16 +13885,16 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>CHEMBL4003777</t>
+          <t>CHEMBL4828942</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using casein as substrate in presence of [gamma-33P]ATP at 1 uM after 40 mins by scintillation counter method</t>
+          <t>Inhibition of ALK (unknown origin) at 100 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -13930,7 +13934,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>CHEMBL4002601</t>
+          <t>CHEMBL4828709</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -13940,18 +13944,18 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Eur J Med Chem</t>
         </is>
       </c>
       <c r="V121" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3AE0&gt;</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -13963,23 +13967,23 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CHEMBL176553</t>
+          <t>CHEMBL208437</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GW631581B</t>
+          <t>GW711782X</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>296.33</v>
+        <v>408.47</v>
       </c>
       <c r="D122" t="n">
-        <v>4.1</v>
+        <v>4.48</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(-c3ccccc3)o2)cc(OC)c1</t>
+          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCn4ccnc4)cc3)c2)nc1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -13998,16 +14002,16 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>4.06</v>
+        <v>-0.73</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -14062,7 +14066,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F984270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2C70&gt;</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14074,19 +14078,23 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CHEMBL4850683</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>CHEMBL1909359</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>GW771127A</t>
+        </is>
+      </c>
       <c r="C123" t="n">
-        <v>497</v>
+        <v>459.96</v>
       </c>
       <c r="D123" t="n">
-        <v>5.71</v>
+        <v>2.83</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Cc1cccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)c1</t>
+          <t>Cc1c2ccc(N(C)c3ccnc(Nc4cccc(S(N)(=O)=O)c4)n3)cc2nn1C</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -14105,16 +14113,16 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.2</v>
+        <v>1.38</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>CHEMBL4828941</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 10 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -14129,7 +14137,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -14154,28 +14162,22 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>CHEMBL4828709</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V123" t="n">
-        <v>2021</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
       <c r="W123" t="n">
         <v>0</v>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2F10&gt;</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14187,23 +14189,23 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CHEMBL268885</t>
+          <t>CHEMBL577784</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GSK-711701A</t>
+          <t>BX-795</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>416.89</v>
+        <v>591.48</v>
       </c>
       <c r="D124" t="n">
-        <v>3.43</v>
+        <v>4.75</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
+          <t>O=C(NCCCNc1nc(Nc2cccc(NC(=O)N3CCCC3)c2)ncc1I)c1cccs1</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -14222,16 +14224,16 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>5.82</v>
+        <v>9</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1251632</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of ALK at 1 uM in presence of 10 uM ATP by Select Screen kinase assay relative to untreated control</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -14271,22 +14273,28 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL1250448</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Nat. Chem. Biol.</t>
+        </is>
+      </c>
+      <c r="V124" t="n">
+        <v>2009</v>
+      </c>
       <c r="W124" t="n">
         <v>0</v>
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F987A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3450&gt;</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">

--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_valid.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_valid.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041EE0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042C70&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041E00&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041D20&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041380&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4557E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030417E0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042AB0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040190&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041D90&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043370&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043760&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4565E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030425E0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042500&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043C30&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040200&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030438B0&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042B90&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043920&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042030&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4543C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030403C0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4578B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042420&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040040&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043610&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040EB0&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043A00&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042960&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F929BD0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B3E0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E90E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9290E0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B0D0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F928C10&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F928F20&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F928900&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A5E0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B840&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B610&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B370&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A0A0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9298C0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9287B0&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B990&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92AF80&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F928CF0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E89E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9289E0&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EBDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92BDF0&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EBAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92BAE0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A8F0&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F929F50&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B7D0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F812A0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80270&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83920&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83B50&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F813F0&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81FC0&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82E30&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80F20&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80510&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81CB0&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82180&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83A70&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81310&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F805F0&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82B90&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83BC0&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F835A0&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81850&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81C40&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80B30&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81E00&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80970&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81A10&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F823B0&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80430&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82F10&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83450&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F802E0&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81070&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83370&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F811C0&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82FF0&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F821F0&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F807B0&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81D20&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80D60&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C4A0&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304F450&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304D7E0&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C3C0&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CAC0&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304F060&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304DD20&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E570&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304D460&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304EC00&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CC80&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C200&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F29D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E180&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E2D0&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C120&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304F0D0&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304D070&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304EE30&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CD60&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E030&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E1F0&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C820&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12615,7 +12615,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E880&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C190&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304DA10&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C350&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304DAF0&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13174,7 +13174,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304DB60&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304F5A0&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13398,7 +13398,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304F1B0&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C5F0&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E960&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304FE60&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304EAB0&gt;</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304ED50&gt;</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E490&gt;</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14177,7 +14177,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304EF10&gt;</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304D620&gt;</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
